--- a/www/IndicatorsPerCountry/Iran_GDPperCapita_TerritorialRef_1946_2012_CCode_364.xlsx
+++ b/www/IndicatorsPerCountry/Iran_GDPperCapita_TerritorialRef_1946_2012_CCode_364.xlsx
@@ -258,13 +258,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Iran_GDPperCapita_TerritorialRef_1946_2012_CCode_364.xlsx
+++ b/www/IndicatorsPerCountry/Iran_GDPperCapita_TerritorialRef_1946_2012_CCode_364.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="90">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,199 +36,217 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>588</t>
+    <t>877</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1720</t>
-  </si>
-  <si>
-    <t>1674</t>
-  </si>
-  <si>
-    <t>1629</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>1504</t>
-  </si>
-  <si>
-    <t>1594</t>
-  </si>
-  <si>
-    <t>1767</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2156</t>
-  </si>
-  <si>
-    <t>2272</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>2426</t>
-  </si>
-  <si>
-    <t>2526</t>
-  </si>
-  <si>
-    <t>2753</t>
-  </si>
-  <si>
-    <t>2940</t>
-  </si>
-  <si>
-    <t>3176</t>
-  </si>
-  <si>
-    <t>3550</t>
-  </si>
-  <si>
-    <t>3897</t>
-  </si>
-  <si>
-    <t>4189</t>
-  </si>
-  <si>
-    <t>4577</t>
-  </si>
-  <si>
-    <t>5174</t>
-  </si>
-  <si>
-    <t>5462</t>
-  </si>
-  <si>
-    <t>5778</t>
-  </si>
-  <si>
-    <t>5883</t>
-  </si>
-  <si>
-    <t>6691</t>
-  </si>
-  <si>
-    <t>6402</t>
-  </si>
-  <si>
-    <t>5464</t>
-  </si>
-  <si>
-    <t>4817</t>
-  </si>
-  <si>
-    <t>3974</t>
-  </si>
-  <si>
-    <t>3693</t>
-  </si>
-  <si>
-    <t>4100</t>
-  </si>
-  <si>
-    <t>4459</t>
-  </si>
-  <si>
-    <t>4361</t>
-  </si>
-  <si>
-    <t>4299</t>
-  </si>
-  <si>
-    <t>3754</t>
-  </si>
-  <si>
-    <t>3584</t>
-  </si>
-  <si>
-    <t>3293</t>
-  </si>
-  <si>
-    <t>3327</t>
-  </si>
-  <si>
-    <t>3526.08925593</t>
-  </si>
-  <si>
-    <t>3812.91451279</t>
-  </si>
-  <si>
-    <t>3859.30429606</t>
-  </si>
-  <si>
-    <t>3750.95815883</t>
-  </si>
-  <si>
-    <t>3716.56353287</t>
-  </si>
-  <si>
-    <t>3770.18493917</t>
-  </si>
-  <si>
-    <t>3982.17805039</t>
-  </si>
-  <si>
-    <t>4059.23477906</t>
-  </si>
-  <si>
-    <t>4113.68325951</t>
-  </si>
-  <si>
-    <t>4140.65503867</t>
-  </si>
-  <si>
-    <t>4301.11607686</t>
-  </si>
-  <si>
-    <t>4401.20627799</t>
-  </si>
-  <si>
-    <t>4709.41972549</t>
-  </si>
-  <si>
-    <t>5050.99287955</t>
-  </si>
-  <si>
-    <t>5310.34048752</t>
-  </si>
-  <si>
-    <t>5492.78161707</t>
-  </si>
-  <si>
-    <t>5762.07937053</t>
-  </si>
-  <si>
-    <t>6053.74613815</t>
-  </si>
-  <si>
-    <t>6013.00189773</t>
-  </si>
-  <si>
-    <t>6172.96846458</t>
-  </si>
-  <si>
-    <t>6455.86619431</t>
+    <t>956</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>2742</t>
+  </si>
+  <si>
+    <t>2668</t>
+  </si>
+  <si>
+    <t>2597</t>
+  </si>
+  <si>
+    <t>2531</t>
+  </si>
+  <si>
+    <t>2464</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>3057</t>
+  </si>
+  <si>
+    <t>3226</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>3622</t>
+  </si>
+  <si>
+    <t>3586</t>
+  </si>
+  <si>
+    <t>3867</t>
+  </si>
+  <si>
+    <t>4026</t>
+  </si>
+  <si>
+    <t>4388</t>
+  </si>
+  <si>
+    <t>4686</t>
+  </si>
+  <si>
+    <t>5062</t>
+  </si>
+  <si>
+    <t>5659</t>
+  </si>
+  <si>
+    <t>6212</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>7296</t>
+  </si>
+  <si>
+    <t>8247</t>
+  </si>
+  <si>
+    <t>8706</t>
+  </si>
+  <si>
+    <t>9210</t>
+  </si>
+  <si>
+    <t>9377</t>
+  </si>
+  <si>
+    <t>10665</t>
+  </si>
+  <si>
+    <t>10205</t>
+  </si>
+  <si>
+    <t>8710</t>
+  </si>
+  <si>
+    <t>7678</t>
+  </si>
+  <si>
+    <t>6334</t>
+  </si>
+  <si>
+    <t>5887</t>
+  </si>
+  <si>
+    <t>6535</t>
+  </si>
+  <si>
+    <t>7108</t>
+  </si>
+  <si>
+    <t>6951</t>
+  </si>
+  <si>
+    <t>6853</t>
+  </si>
+  <si>
+    <t>5984</t>
+  </si>
+  <si>
+    <t>5713</t>
+  </si>
+  <si>
+    <t>5249</t>
+  </si>
+  <si>
+    <t>5303</t>
+  </si>
+  <si>
+    <t>5620</t>
+  </si>
+  <si>
+    <t>6380.54988973106</t>
+  </si>
+  <si>
+    <t>7036.31509003198</t>
+  </si>
+  <si>
+    <t>6914.76659810125</t>
+  </si>
+  <si>
+    <t>6884.7061961862</t>
+  </si>
+  <si>
+    <t>7093.73493021646</t>
+  </si>
+  <si>
+    <t>7746.4090150839</t>
+  </si>
+  <si>
+    <t>8113.72417857617</t>
+  </si>
+  <si>
+    <t>8458.38635818095</t>
+  </si>
+  <si>
+    <t>8714.62664338724</t>
+  </si>
+  <si>
+    <t>9104.76299117977</t>
+  </si>
+  <si>
+    <t>9620.62666318207</t>
+  </si>
+  <si>
+    <t>10467.3706415522</t>
+  </si>
+  <si>
+    <t>11502.8521586098</t>
+  </si>
+  <si>
+    <t>12404.3236607682</t>
+  </si>
+  <si>
+    <t>13110.1423477105</t>
+  </si>
+  <si>
+    <t>14185.7533135321</t>
+  </si>
+  <si>
+    <t>15467.1074241692</t>
+  </si>
+  <si>
+    <t>15739.9838815813</t>
+  </si>
+  <si>
+    <t>16575.0711200409</t>
+  </si>
+  <si>
+    <t>17751.3307950819</t>
+  </si>
+  <si>
+    <t>18024</t>
+  </si>
+  <si>
+    <t>16745</t>
+  </si>
+  <si>
+    <t>16248</t>
+  </si>
+  <si>
+    <t>16493</t>
+  </si>
+  <si>
+    <t>16253</t>
+  </si>
+  <si>
+    <t>16783</t>
   </si>
   <si>
     <t>Description</t>
@@ -3579,6 +3597,108 @@
         <v>71</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3594,50 +3714,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
